--- a/112-1/ELECTRICAL ENGINEERING FUNDAMENTALS I/Lab/Lab 2/Lab 2.xlsx
+++ b/112-1/ELECTRICAL ENGINEERING FUNDAMENTALS I/Lab/Lab 2/Lab 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\ELECTRICAL ENGINEERING FUNDAMENTALS I\Lab\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43E6C02-0C02-4499-B284-397C54C4FCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E2283F-2133-41BF-8DC1-69522C83816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PL(W)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VL(V)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,13 +119,17 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>PL(mW)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -206,7 +206,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,16 +495,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.640625" customWidth="1"/>
-    <col min="2" max="4" width="10.640625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="4" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -524,14 +524,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>13.87</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>15-10/7.6</f>
         <v>13.684210526315789</v>
       </c>
@@ -540,11 +540,11 @@
         <v>1.3576923076923026E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
         <v>1.5006999999999999</v>
       </c>
       <c r="C4" s="2">
@@ -556,7 +556,7 @@
         <v>1.8332142857142863E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -565,9 +565,9 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -582,9 +582,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0.90490000000000004</v>
@@ -599,7 +599,7 @@
         <v>9.0906000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -616,25 +616,25 @@
         <v>0.91759999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <f>B$8*B$9*10^-3</f>
-        <v>8.3420921200000001E-3</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:E10" si="0">C$8*C$9*10^-3</f>
-        <v>2.5289358749999997E-2</v>
-      </c>
-      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B$8*B$9</f>
+        <v>8.3420921200000002</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:E10" si="0">C$8*C$9</f>
+        <v>25.289358749999998</v>
+      </c>
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>2.1762729120000001E-2</v>
-      </c>
-      <c r="E10">
+        <v>21.762729119999999</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>8.3415345599999989E-3</v>
+        <v>8.3415345599999995</v>
       </c>
     </row>
   </sheetData>
